--- a/medicine/Psychotrope/Mouton_Cadet/Mouton_Cadet.xlsx
+++ b/medicine/Psychotrope/Mouton_Cadet/Mouton_Cadet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mouton Cadet est une gamme de vins de marque en appellation bordeaux, produit par la société « Baron Philippe de Rothschild SA ». Mouton Cadet est une marque offrant 10 appellations du vignoble bordelais, présente dans plus de 100 pays. Mouton Cadet est né en 1930, à Pauillac, de l'esprit visionnaire du Baron Philippe de Rothschild qui avait pour ambition de faire découvrir les vins de Bordeaux à un plus vaste public, jusque-là réservés à une élite.[réf. nécessaire]
-La marque Mouton Cadet appartient à la société Baron Philippe de Rothschild, et est élaborée en collaboration avec 250 vignerons partenaires, cultivant 1 500 hectares de vignes dans la région de bordeaux[1].
-Engagé dans le respect de l’environnement, Mouton Cadet a pour ambition de garantir aux consommateurs la meilleure qualité de la vigne au verre, tout en préservant les terroirs et les Hommes. Ainsi, les vins Mouton Cadet sont certifiés Haute Valeur environnementale depuis 2020[2]. Les lancements de Mouton Cadet Rouge Bio en 2021[3] et de Mouton Cadet Rosé Bio en 2022[4] s’inscrivent également dans cette démarche.
+La marque Mouton Cadet appartient à la société Baron Philippe de Rothschild, et est élaborée en collaboration avec 250 vignerons partenaires, cultivant 1 500 hectares de vignes dans la région de bordeaux.
+Engagé dans le respect de l’environnement, Mouton Cadet a pour ambition de garantir aux consommateurs la meilleure qualité de la vigne au verre, tout en préservant les terroirs et les Hommes. Ainsi, les vins Mouton Cadet sont certifiés Haute Valeur environnementale depuis 2020. Les lancements de Mouton Cadet Rouge Bio en 2021 et de Mouton Cadet Rosé Bio en 2022 s’inscrivent également dans cette démarche.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Origine et évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après deux grands millésimes, en 1928 et 1929, le Médoc connaît une série de récoltes plus délicates. C'est pourquoi en 1930, le baron Philippe de Rothschild, alors déjà propriétaire de Château Mouton Rothschild, décide que le millésime ne portera pas le nom du château : le vin est donc déclassé. Cependant, cela reste un vin de qualité que le baron Philippe commercialisera tout de même sous la marque « Mouton Cadet » ; le nom de Mouton Cadet est choisi, car Philippe de Rothschild est lui-même le cadet de la famille. Quant à Mouton, le terme fait référence non pas à l'animal, mais à mothon ou petite mothe, noms qui désignaient autrefois les buttes dans le Médoc[5].
-Si les vins de 1930 et 1931 sont produits sur le domaine, dès l'année suivante l'approvisionnement est complété par la production d'autres domaines de la commune de Pauillac, puis de Saint-Estèphe et du reste du Haut-Médoc, pour faire face à la demande parisienne[6]. D'un « second vin », Mouton Cadet se transforme en un vin de marque, destiné à faire connaître Bordeaux avec un vin plus abordable. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après deux grands millésimes, en 1928 et 1929, le Médoc connaît une série de récoltes plus délicates. C'est pourquoi en 1930, le baron Philippe de Rothschild, alors déjà propriétaire de Château Mouton Rothschild, décide que le millésime ne portera pas le nom du château : le vin est donc déclassé. Cependant, cela reste un vin de qualité que le baron Philippe commercialisera tout de même sous la marque « Mouton Cadet » ; le nom de Mouton Cadet est choisi, car Philippe de Rothschild est lui-même le cadet de la famille. Quant à Mouton, le terme fait référence non pas à l'animal, mais à mothon ou petite mothe, noms qui désignaient autrefois les buttes dans le Médoc.
+Si les vins de 1930 et 1931 sont produits sur le domaine, dès l'année suivante l'approvisionnement est complété par la production d'autres domaines de la commune de Pauillac, puis de Saint-Estèphe et du reste du Haut-Médoc, pour faire face à la demande parisienne. D'un « second vin », Mouton Cadet se transforme en un vin de marque, destiné à faire connaître Bordeaux avec un vin plus abordable. 
 Comme les décrets du 14 novembre 1936 créent les appellations d'origine contrôlée (AOC) pauillac et bordeaux et que le Mouton Cadet est fait à partir de vins venant de nombreuses communes du vignoble de Bordeaux, il passe sous l'appellation générique bordeaux. Une politique d'approvisionnement basée sur la sélection parcellaire et les partenariats avec les viticulteurs est mise en place. La sélection parcellaire permet de choisir les meilleures parcelles qui participeront à l'élaboration de Mouton Cadet, chacune étant choisie pour ses caractéristiques spécifiques.
 En 1933, la baronne Philippine de Rothschild inaugure le Centre vinicole de Saint-Laurent-Médoc, aujourd'hui rebaptisé Centre Vinicole Mouton Cadet. En 2004, toujours sous l'impulsion de Philippine de Rothschild, Mouton-Cadet connaît un nouvel élan avec la redéfinition de Mouton Cadet rouge et Mouton Cadet blanc qui voient leur durée d'élevage initiale raccourcir pour une meilleure conservation du caractère fruité des vins. Au cours de cette même année, le rosé de Mouton Cadet voit le jour. La gamme Réserve Mouton Cadet est quant à elle plus élargie. Plus récemment Mouton Cadet Sauvignon blanc (100 % sauvignon blanc, base du cocktail Green Cadet) et Mouton Cadet Édition Vintage ont vu le jour.
 </t>
@@ -548,9 +562,11 @@
           <t>Assemblage et volumes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un vin de négociant, réalisé par assemblage de vins de différentes origines qui peuvent être produits sur l'ensemble du vignoble de Bordeaux, provenant notamment de l'Entre-deux-Mers et de la Haute Gironde (Blayais), fait par des coopératives ou par des vignerons indépendants[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un vin de négociant, réalisé par assemblage de vins de différentes origines qui peuvent être produits sur l'ensemble du vignoble de Bordeaux, provenant notamment de l'Entre-deux-Mers et de la Haute Gironde (Blayais), fait par des coopératives ou par des vignerons indépendants.
 La société a tissé des relations privilégies, encadrées par des cahiers des charges personnalisés, avec de nombreux viticulteurs sur 1 500 hectares des différents terroirs de la région bordelaise. Les œnologues de la société travaillent avec les viticulteurs partenaires, qu'ils conseillent et guident tout au long de l'année, de la conduite de la vigne à la détermination de la date des vendanges. Les assemblages sont réalisés à la cuverie du centre vinicole Mouton Cadet.
 Mouton Cadet est présent dans plus de 150 pays grâce à 120 agents, importateurs et distributeurs dans le monde.
 </t>
@@ -581,7 +597,9 @@
           <t>La gamme Mouton Cadet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La gamme Mouton Cadet comprend : 
 Mouton Cadet Rouge ;
@@ -630,7 +648,9 @@
           <t>Autres vins de marque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Baron Philippe de Rothschild produit d'autres vins de marque issus de la région bordelaise comme les Cuvées Barons Baronnes, Sélection Agneau, Mise de la Baronnie ou Bordeaux Baron Philippe de Rothschild. 
 Elle produit aussi des vins de cépages dans le Sud de la France, avec la gamme Cadet d'Oc et les vins de cépages du Pays d'Oc. 
